--- a/xlsx/计算机硬件_intext.xlsx
+++ b/xlsx/计算机硬件_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>计算机硬件</t>
   </si>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>系統軟體</t>
+    <t>系统软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>韌體</t>
+    <t>韧体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BIOS</t>
@@ -59,25 +59,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>應用軟體</t>
+    <t>应用软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E6%B5%81%E6%8E%92</t>
   </si>
   <si>
-    <t>匯流排</t>
+    <t>汇流排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E5%8B%95%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>驅動程式</t>
+    <t>驱动程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%80%81%E7%A1%AC%E7%9B%98</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%9B%A4</t>
   </si>
   <si>
-    <t>硬盤</t>
+    <t>硬盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E7%9B%98%E9%98%B5%E5%88%97</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>鍵盤</t>
+    <t>键盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%A0%E6%A0%87</t>
@@ -161,19 +161,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F%E6%9D%BF</t>
   </si>
   <si>
-    <t>主機板</t>
+    <t>主机板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>中央處理器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F%E5%AD%98%E5%8F%96%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>隨機存取記憶體</t>
+    <t>随机存取记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CD</t>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%A1%AC%E9%AB%94%E5%86%B7%E5%8D%BB</t>
   </si>
   <si>
-    <t>電腦硬體冷卻</t>
+    <t>电脑硬体冷却</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>圖形處理器</t>
+    <t>图形处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E7%89%87%E7%B5%84</t>
   </si>
   <si>
-    <t>晶片組</t>
+    <t>晶片组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EDORAM</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%BB%B6%E4%BC%B8%E9%9F%8C%E9%AB%94%E4%BB%8B%E9%9D%A2</t>
   </si>
   <si>
-    <t>可延伸韌體介面</t>
+    <t>可延伸韧体介面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PCI_Express</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E5%99%A8%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>控制器區域網路</t>
+    <t>控制器区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IEEE_1394</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89%E5%99%A8</t>
   </si>
   <si>
-    <t>電源供應器</t>
+    <t>电源供应器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%9D%A2%E5%8D%A1</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E5%8D%A1</t>
   </si>
   <si>
-    <t>顯示卡</t>
+    <t>显示卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E5%88%B6%E8%A7%A3%E8%B0%83%E5%99%A8</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E7%A2%9F</t>
   </si>
   <si>
-    <t>軟碟</t>
+    <t>软碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%B8%B6%E6%A9%9F</t>
   </si>
   <si>
-    <t>磁帶機</t>
+    <t>磁带机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E7%A1%AC%E7%9B%98</t>
@@ -491,19 +488,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%96%83%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>快閃記憶體</t>
+    <t>快闪记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%96%83%E7%A2%9F</t>
   </si>
   <si>
-    <t>快閃碟</t>
+    <t>快闪碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E5%8D%A1</t>
   </si>
   <si>
-    <t>記憶卡</t>
+    <t>记忆卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SD</t>
@@ -533,9 +530,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%9B%98</t>
   </si>
   <si>
-    <t>硬盘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%BC%A0</t>
   </si>
   <si>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E8%B7%A1%E7%90%83</t>
   </si>
   <si>
-    <t>軌跡球</t>
+    <t>轨迹球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%A0%81%E7%BB%98%E5%9B%BE%E6%9D%BF</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E6%8E%A7%E8%9E%A2%E5%B9%95</t>
   </si>
   <si>
-    <t>觸控螢幕</t>
+    <t>触控萤幕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E6%8E%A7%E5%88%B6%E5%99%A8</t>
@@ -581,25 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E9%A2%A8</t>
   </si>
   <si>
-    <t>麥克風</t>
+    <t>麦克风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>掃描器</t>
+    <t>扫描器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E7%9B%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>數碼相機</t>
+    <t>数码相机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E5%8D%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>打印機</t>
+    <t>打印机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B9%E9%98%B5%E5%BC%8F%E6%89%93%E5%8D%B0%E6%9C%BA</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%A2%A8%E5%8D%B0%E8%A1%A8%E6%A9%9F</t>
   </si>
   <si>
-    <t>噴墨印表機</t>
+    <t>喷墨打印机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E5%85%89%E6%89%93%E5%8D%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>激光打印機</t>
+    <t>激光打印机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E8%81%B2%E5%99%A8</t>
   </si>
   <si>
-    <t>揚聲器</t>
+    <t>扬声器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E6%9C%BA</t>
@@ -635,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>電腦顯示器</t>
+    <t>电脑显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E6%A5%B5%E5%B0%84%E7%B7%9A%E7%AE%A1</t>
   </si>
   <si>
-    <t>陰極射線管</t>
+    <t>阴极射线管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%99%B6%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>液晶顯示器</t>
+    <t>液晶显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E5%BD%B1%E4%BB%AA</t>
@@ -659,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>程式語言</t>
+    <t>程式语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>軟件</t>
+    <t>软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/I/O</t>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>影像掃描器</t>
+    <t>影像扫描器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A6%E6%91%B8%E6%9D%BF</t>
@@ -701,15 +695,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A8%E8%BF%B9%E7%90%83</t>
   </si>
   <si>
-    <t>轨迹球</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E9%A3%8E</t>
   </si>
   <si>
-    <t>麦克风</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%84%E5%83%8F%E5%A4%B4</t>
   </si>
   <si>
@@ -719,13 +707,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E5%8D%B0%E6%9C%BA</t>
   </si>
   <si>
-    <t>打印机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%8A%9F%E8%83%BD%E4%BA%8B%E5%8B%99%E6%A9%9F</t>
   </si>
   <si>
-    <t>多功能事務機</t>
+    <t>多功能事务机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E5%AD%98%E5%82%A8</t>
@@ -737,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%B8%B6</t>
   </si>
   <si>
-    <t>磁帶</t>
+    <t>磁带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E7%9B%98</t>
@@ -749,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>藍光光碟</t>
+    <t>蓝光光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AA%E5%AD%98%E7%9B%98</t>
@@ -761,9 +746,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%BE%E7%A4%BA%E5%8D%A1</t>
   </si>
   <si>
-    <t>显示卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%9B%BA%E6%80%81%E7%A1%AC%E7%9B%98</t>
   </si>
   <si>
@@ -773,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%9D%A2_(%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80)</t>
   </si>
   <si>
-    <t>介面 (資訊科技)</t>
+    <t>介面 (资讯科技)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B2%E8%A1%8C%E7%AB%AF%E5%8F%A3</t>
@@ -1897,7 +1879,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -1923,10 +1905,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1952,10 +1934,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>10</v>
@@ -1981,10 +1963,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>10</v>
@@ -2010,10 +1992,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2039,10 +2021,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2068,10 +2050,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2097,10 +2079,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2126,10 +2108,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2155,10 +2137,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2184,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -2213,10 +2195,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2242,10 +2224,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2271,10 +2253,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2300,10 +2282,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2329,10 +2311,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2387,10 +2369,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2416,10 +2398,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2445,10 +2427,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2474,10 +2456,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2503,10 +2485,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2532,10 +2514,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2561,10 +2543,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2590,10 +2572,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2619,10 +2601,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2648,10 +2630,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2677,10 +2659,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2706,10 +2688,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2735,10 +2717,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2764,10 +2746,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2793,10 +2775,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2822,10 +2804,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2851,10 +2833,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2880,10 +2862,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2909,10 +2891,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2938,10 +2920,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2967,10 +2949,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>10</v>
@@ -2996,10 +2978,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3025,10 +3007,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3054,10 +3036,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3083,10 +3065,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3112,10 +3094,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3141,10 +3123,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" t="s">
         <v>53</v>
-      </c>
-      <c r="F68" t="s">
-        <v>54</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3170,10 +3152,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3199,10 +3181,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3228,10 +3210,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -3257,10 +3239,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3286,10 +3268,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3315,10 +3297,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3344,10 +3326,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3373,10 +3355,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3402,10 +3384,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3431,10 +3413,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3460,10 +3442,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3489,10 +3471,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3518,10 +3500,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3547,10 +3529,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3576,10 +3558,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3605,10 +3587,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3634,10 +3616,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3663,10 +3645,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3692,10 +3674,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3721,10 +3703,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -3779,10 +3761,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3808,10 +3790,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3837,10 +3819,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3866,10 +3848,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3895,10 +3877,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3924,10 +3906,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3953,10 +3935,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3982,10 +3964,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4011,10 +3993,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4040,10 +4022,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4069,10 +4051,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -4098,10 +4080,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4127,10 +4109,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4156,10 +4138,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4185,10 +4167,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4214,10 +4196,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4243,10 +4225,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4272,10 +4254,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4301,10 +4283,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4330,10 +4312,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4359,10 +4341,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4388,10 +4370,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4417,10 +4399,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4446,10 +4428,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4475,10 +4457,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4504,10 +4486,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4533,10 +4515,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4562,10 +4544,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4591,10 +4573,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4620,10 +4602,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4649,10 +4631,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4678,10 +4660,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4707,10 +4689,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4736,10 +4718,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4765,10 +4747,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4794,10 +4776,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4823,10 +4805,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4852,10 +4834,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4881,10 +4863,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4910,10 +4892,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>160</v>
+      </c>
+      <c r="F129" t="s">
         <v>161</v>
-      </c>
-      <c r="F129" t="s">
-        <v>162</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4968,10 +4950,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4997,10 +4979,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>124</v>
+      </c>
+      <c r="F132" t="s">
         <v>125</v>
-      </c>
-      <c r="F132" t="s">
-        <v>126</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5026,10 +5008,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>120</v>
+      </c>
+      <c r="F133" t="s">
         <v>121</v>
-      </c>
-      <c r="F133" t="s">
-        <v>122</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5084,10 +5066,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5113,10 +5095,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5142,10 +5124,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5171,10 +5153,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5200,10 +5182,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5229,10 +5211,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5258,10 +5240,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5287,10 +5269,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5316,10 +5298,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5345,10 +5327,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5374,10 +5356,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5403,10 +5385,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
